--- a/public_list2017/20170101_20170131_public_list.xlsx
+++ b/public_list2017/20170101_20170131_public_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\usr\sh\github\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="13140" windowHeight="13890"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="417">
   <si>
     <t>nid</t>
   </si>
@@ -1271,17 +1275,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1289,28 +1297,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1600,19 +1618,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="89.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1653,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1644,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10773681</v>
       </c>
@@ -1660,7 +1685,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20170102084132</v>
       </c>
       <c r="G2" t="s">
@@ -1676,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10773686</v>
       </c>
@@ -1692,7 +1717,7 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20170102102652</v>
       </c>
       <c r="G3" t="s">
@@ -1708,7 +1733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10773694</v>
       </c>
@@ -1724,7 +1749,7 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20170102110810</v>
       </c>
       <c r="G4" t="s">
@@ -1740,7 +1765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10773696</v>
       </c>
@@ -1756,7 +1781,7 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>20170102120321</v>
       </c>
       <c r="G5" t="s">
@@ -1772,7 +1797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10773699</v>
       </c>
@@ -1788,7 +1813,7 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>20170102131623</v>
       </c>
       <c r="G6" t="s">
@@ -1804,7 +1829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10773726</v>
       </c>
@@ -1820,7 +1845,7 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>20170102132637</v>
       </c>
       <c r="G7" t="s">
@@ -1836,7 +1861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10773729</v>
       </c>
@@ -1852,7 +1877,7 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>20170102133155</v>
       </c>
       <c r="G8" t="s">
@@ -1868,7 +1893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10773734</v>
       </c>
@@ -1884,7 +1909,7 @@
       <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>20170102135738</v>
       </c>
       <c r="G9" t="s">
@@ -1900,7 +1925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10773738</v>
       </c>
@@ -1916,7 +1941,7 @@
       <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>20170102151111</v>
       </c>
       <c r="G10" t="s">
@@ -1932,7 +1957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10773743</v>
       </c>
@@ -1948,7 +1973,7 @@
       <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>20170102152847</v>
       </c>
       <c r="G11" t="s">
@@ -1964,7 +1989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10773744</v>
       </c>
@@ -1980,7 +2005,7 @@
       <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>20170102155527</v>
       </c>
       <c r="G12" t="s">
@@ -1996,7 +2021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10783191</v>
       </c>
@@ -2012,7 +2037,7 @@
       <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>20170103102936</v>
       </c>
       <c r="G13" t="s">
@@ -2028,7 +2053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10783200</v>
       </c>
@@ -2044,7 +2069,7 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>20170103000000</v>
       </c>
       <c r="G14" t="s">
@@ -2060,7 +2085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10783803</v>
       </c>
@@ -2076,7 +2101,7 @@
       <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>20170103154732</v>
       </c>
       <c r="G15" t="s">
@@ -2092,7 +2117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10783812</v>
       </c>
@@ -2108,7 +2133,7 @@
       <c r="E16" t="s">
         <v>98</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>20170103173004</v>
       </c>
       <c r="G16" t="s">
@@ -2124,7 +2149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10783817</v>
       </c>
@@ -2140,7 +2165,7 @@
       <c r="E17" t="s">
         <v>104</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>20170103181805</v>
       </c>
       <c r="G17" t="s">
@@ -2156,7 +2181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10783818</v>
       </c>
@@ -2172,7 +2197,7 @@
       <c r="E18" t="s">
         <v>111</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>20170103000000</v>
       </c>
       <c r="G18" t="s">
@@ -2188,7 +2213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10783820</v>
       </c>
@@ -2204,7 +2229,7 @@
       <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>20170103182038</v>
       </c>
       <c r="G19" t="s">
@@ -2220,7 +2245,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10796963</v>
       </c>
@@ -2236,7 +2261,7 @@
       <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>20170104092218</v>
       </c>
       <c r="G20" t="s">
@@ -2252,7 +2277,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10796965</v>
       </c>
@@ -2268,7 +2293,7 @@
       <c r="E21" t="s">
         <v>125</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>20170104094625</v>
       </c>
       <c r="G21" t="s">
@@ -2284,7 +2309,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10796966</v>
       </c>
@@ -2300,7 +2325,7 @@
       <c r="E22" t="s">
         <v>130</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>20170104000000</v>
       </c>
       <c r="G22" t="s">
@@ -2316,7 +2341,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10796969</v>
       </c>
@@ -2332,7 +2357,7 @@
       <c r="E23" t="s">
         <v>136</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>20170104000000</v>
       </c>
       <c r="G23" t="s">
@@ -2348,7 +2373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10796973</v>
       </c>
@@ -2364,7 +2389,7 @@
       <c r="E24" t="s">
         <v>142</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>20170104104346</v>
       </c>
       <c r="G24" t="s">
@@ -2380,7 +2405,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10796979</v>
       </c>
@@ -2396,7 +2421,7 @@
       <c r="E25" t="s">
         <v>149</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>20170104132447</v>
       </c>
       <c r="G25" t="s">
@@ -2412,7 +2437,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10796984</v>
       </c>
@@ -2428,7 +2453,7 @@
       <c r="E26" t="s">
         <v>155</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>20170104134206</v>
       </c>
       <c r="G26" t="s">
@@ -2444,7 +2469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10797891</v>
       </c>
@@ -2460,7 +2485,7 @@
       <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>20170104000000</v>
       </c>
       <c r="G27" t="s">
@@ -2476,7 +2501,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10797893</v>
       </c>
@@ -2492,7 +2517,7 @@
       <c r="E28" t="s">
         <v>142</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>20170104172316</v>
       </c>
       <c r="G28" t="s">
@@ -2508,7 +2533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10797896</v>
       </c>
@@ -2524,7 +2549,7 @@
       <c r="E29" t="s">
         <v>170</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>20170104182749</v>
       </c>
       <c r="G29" t="s">
@@ -2540,7 +2565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10797897</v>
       </c>
@@ -2556,7 +2581,7 @@
       <c r="E30" t="s">
         <v>177</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>20170104000000</v>
       </c>
       <c r="G30" t="s">
@@ -2572,7 +2597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10797898</v>
       </c>
@@ -2588,7 +2613,7 @@
       <c r="E31" t="s">
         <v>183</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>20170104000000</v>
       </c>
       <c r="G31" t="s">
@@ -2604,7 +2629,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10806598</v>
       </c>
@@ -2620,7 +2645,7 @@
       <c r="E32" t="s">
         <v>189</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>20170105133632</v>
       </c>
       <c r="G32" t="s">
@@ -2636,7 +2661,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10807532</v>
       </c>
@@ -2652,7 +2677,7 @@
       <c r="E33" t="s">
         <v>194</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>20170105181049</v>
       </c>
       <c r="G33" t="s">
@@ -2668,7 +2693,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10817076</v>
       </c>
@@ -2684,7 +2709,7 @@
       <c r="E34" t="s">
         <v>199</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>20170106100126</v>
       </c>
       <c r="G34" t="s">
@@ -2700,7 +2725,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10817077</v>
       </c>
@@ -2716,7 +2741,7 @@
       <c r="E35" t="s">
         <v>199</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>20170106100250</v>
       </c>
       <c r="G35" t="s">
@@ -2732,7 +2757,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10817078</v>
       </c>
@@ -2748,7 +2773,7 @@
       <c r="E36" t="s">
         <v>199</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>20170106100410</v>
       </c>
       <c r="G36" t="s">
@@ -2764,7 +2789,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10817079</v>
       </c>
@@ -2780,7 +2805,7 @@
       <c r="E37" t="s">
         <v>199</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>20170106100701</v>
       </c>
       <c r="G37" t="s">
@@ -2796,7 +2821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10817088</v>
       </c>
@@ -2812,7 +2837,7 @@
       <c r="E38" t="s">
         <v>214</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>20170106142921</v>
       </c>
       <c r="G38" t="s">
@@ -2828,7 +2853,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10817999</v>
       </c>
@@ -2844,7 +2869,7 @@
       <c r="E39" t="s">
         <v>219</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>20170106144200</v>
       </c>
       <c r="G39" t="s">
@@ -2860,7 +2885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10818004</v>
       </c>
@@ -2876,7 +2901,7 @@
       <c r="E40" t="s">
         <v>224</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>20170106162410</v>
       </c>
       <c r="G40" t="s">
@@ -2892,7 +2917,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10818011</v>
       </c>
@@ -2908,7 +2933,7 @@
       <c r="E41" t="s">
         <v>229</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>20170106173849</v>
       </c>
       <c r="G41" t="s">
@@ -2924,7 +2949,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10828246</v>
       </c>
@@ -2940,7 +2965,7 @@
       <c r="E42" t="s">
         <v>235</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>20170107160945</v>
       </c>
       <c r="G42" t="s">
@@ -2956,7 +2981,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10828576</v>
       </c>
@@ -2972,7 +2997,7 @@
       <c r="E43" t="s">
         <v>240</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>20170109103357</v>
       </c>
       <c r="G43" t="s">
@@ -2988,7 +3013,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10828577</v>
       </c>
@@ -3004,7 +3029,7 @@
       <c r="E44" t="s">
         <v>240</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>20170109103503</v>
       </c>
       <c r="G44" t="s">
@@ -3020,7 +3045,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10828607</v>
       </c>
@@ -3036,7 +3061,7 @@
       <c r="E45" t="s">
         <v>247</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>20170109155716</v>
       </c>
       <c r="G45" t="s">
@@ -3052,7 +3077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10828609</v>
       </c>
@@ -3068,7 +3093,7 @@
       <c r="E46" t="s">
         <v>247</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>20170109160204</v>
       </c>
       <c r="G46" t="s">
@@ -3084,7 +3109,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10845137</v>
       </c>
@@ -3100,7 +3125,7 @@
       <c r="E47" t="s">
         <v>55</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>20170110145340</v>
       </c>
       <c r="G47" t="s">
@@ -3116,7 +3141,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10845155</v>
       </c>
@@ -3132,7 +3157,7 @@
       <c r="E48" t="s">
         <v>104</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>20170110160442</v>
       </c>
       <c r="G48" t="s">
@@ -3148,7 +3173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10845246</v>
       </c>
@@ -3164,7 +3189,7 @@
       <c r="E49" t="s">
         <v>84</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>20170111083007</v>
       </c>
       <c r="G49" t="s">
@@ -3180,7 +3205,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10855721</v>
       </c>
@@ -3196,7 +3221,7 @@
       <c r="E50" t="s">
         <v>270</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>20170111104010</v>
       </c>
       <c r="G50" t="s">
@@ -3212,7 +3237,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10855728</v>
       </c>
@@ -3228,7 +3253,7 @@
       <c r="E51" t="s">
         <v>275</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>20170111134411</v>
       </c>
       <c r="G51" t="s">
@@ -3244,7 +3269,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10855729</v>
       </c>
@@ -3260,7 +3285,7 @@
       <c r="E52" t="s">
         <v>280</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>20170111135342</v>
       </c>
       <c r="G52" t="s">
@@ -3276,7 +3301,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10866165</v>
       </c>
@@ -3292,7 +3317,7 @@
       <c r="E53" t="s">
         <v>104</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>20170112104331</v>
       </c>
       <c r="G53" t="s">
@@ -3308,7 +3333,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10866167</v>
       </c>
@@ -3324,7 +3349,7 @@
       <c r="E54" t="s">
         <v>287</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>20170112131521</v>
       </c>
       <c r="G54" t="s">
@@ -3340,7 +3365,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10866896</v>
       </c>
@@ -3356,7 +3381,7 @@
       <c r="E55" t="s">
         <v>292</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>20170112154753</v>
       </c>
       <c r="G55" t="s">
@@ -3372,7 +3397,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10866898</v>
       </c>
@@ -3388,7 +3413,7 @@
       <c r="E56" t="s">
         <v>298</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>20170112195127</v>
       </c>
       <c r="G56" t="s">
@@ -3404,7 +3429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10876433</v>
       </c>
@@ -3420,7 +3445,7 @@
       <c r="E57" t="s">
         <v>303</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>20170113110158</v>
       </c>
       <c r="G57" t="s">
@@ -3436,7 +3461,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10876435</v>
       </c>
@@ -3452,7 +3477,7 @@
       <c r="E58" t="s">
         <v>308</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>20170113110346</v>
       </c>
       <c r="G58" t="s">
@@ -3468,7 +3493,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10876436</v>
       </c>
@@ -3484,7 +3509,7 @@
       <c r="E59" t="s">
         <v>308</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>20170113110749</v>
       </c>
       <c r="G59" t="s">
@@ -3500,7 +3525,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10876443</v>
       </c>
@@ -3516,7 +3541,7 @@
       <c r="E60" t="s">
         <v>308</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>20170113131532</v>
       </c>
       <c r="G60" t="s">
@@ -3532,7 +3557,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10876444</v>
       </c>
@@ -3548,7 +3573,7 @@
       <c r="E61" t="s">
         <v>308</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>20170113131650</v>
       </c>
       <c r="G61" t="s">
@@ -3564,7 +3589,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10876446</v>
       </c>
@@ -3580,7 +3605,7 @@
       <c r="E62" t="s">
         <v>28</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>20170113132129</v>
       </c>
       <c r="G62" t="s">
@@ -3596,7 +3621,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10888895</v>
       </c>
@@ -3612,7 +3637,7 @@
       <c r="E63" t="s">
         <v>325</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>20170115000000</v>
       </c>
       <c r="G63" t="s">
@@ -3628,7 +3653,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10899714</v>
       </c>
@@ -3644,7 +3669,7 @@
       <c r="E64" t="s">
         <v>170</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>20170117092926</v>
       </c>
       <c r="G64" t="s">
@@ -3660,7 +3685,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10912232</v>
       </c>
@@ -3676,7 +3701,7 @@
       <c r="E65" t="s">
         <v>337</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>20170118123855</v>
       </c>
       <c r="G65" t="s">
@@ -3692,7 +3717,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10925106</v>
       </c>
@@ -3708,7 +3733,7 @@
       <c r="E66" t="s">
         <v>343</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>20170119000000</v>
       </c>
       <c r="G66" t="s">
@@ -3724,7 +3749,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10936232</v>
       </c>
@@ -3740,7 +3765,7 @@
       <c r="E67" t="s">
         <v>349</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>20170120000000</v>
       </c>
       <c r="G67" t="s">
@@ -3756,7 +3781,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10948928</v>
       </c>
@@ -3772,7 +3797,7 @@
       <c r="E68" t="s">
         <v>354</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>20170123113910</v>
       </c>
       <c r="G68" t="s">
@@ -3788,7 +3813,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10948954</v>
       </c>
@@ -3804,7 +3829,7 @@
       <c r="E69" t="s">
         <v>358</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>20170123165642</v>
       </c>
       <c r="G69" t="s">
@@ -3820,7 +3845,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10948955</v>
       </c>
@@ -3836,7 +3861,7 @@
       <c r="E70" t="s">
         <v>365</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>20170123000000</v>
       </c>
       <c r="G70" t="s">
@@ -3852,7 +3877,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10964505</v>
       </c>
@@ -3868,7 +3893,7 @@
       <c r="E71" t="s">
         <v>371</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>20170124184123</v>
       </c>
       <c r="G71" t="s">
@@ -3884,7 +3909,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10976877</v>
       </c>
@@ -3900,7 +3925,7 @@
       <c r="E72" t="s">
         <v>377</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>20170125000000</v>
       </c>
       <c r="G72" t="s">
@@ -3916,7 +3941,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10989390</v>
       </c>
@@ -3932,7 +3957,7 @@
       <c r="E73" t="s">
         <v>383</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>20170126000000</v>
       </c>
       <c r="G73" t="s">
@@ -3948,7 +3973,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10989391</v>
       </c>
@@ -3964,7 +3989,7 @@
       <c r="E74" t="s">
         <v>389</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>20170126114443</v>
       </c>
       <c r="G74" t="s">
@@ -3980,7 +4005,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10989392</v>
       </c>
@@ -3996,7 +4021,7 @@
       <c r="E75" t="s">
         <v>395</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>20170126135922</v>
       </c>
       <c r="G75" t="s">
@@ -4012,7 +4037,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10989393</v>
       </c>
@@ -4028,7 +4053,7 @@
       <c r="E76" t="s">
         <v>395</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>20170126140050</v>
       </c>
       <c r="G76" t="s">
@@ -4044,7 +4069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10990297</v>
       </c>
@@ -4060,7 +4085,7 @@
       <c r="E77" t="s">
         <v>403</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>20170126151915</v>
       </c>
       <c r="G77" t="s">
@@ -4076,7 +4101,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10990298</v>
       </c>
@@ -4092,7 +4117,7 @@
       <c r="E78" t="s">
         <v>408</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>20170126165329</v>
       </c>
       <c r="G78" t="s">
@@ -4108,7 +4133,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10990300</v>
       </c>
@@ -4124,7 +4149,7 @@
       <c r="E79" t="s">
         <v>104</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>20170126180916</v>
       </c>
       <c r="G79" t="s">
@@ -4141,17 +4166,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>